--- a/Prompt_BID_batch_1_1.xlsx
+++ b/Prompt_BID_batch_1_1.xlsx
@@ -518,75 +518,151 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The image is of an ornate interior, likely a church, showcasing impressive architectural and artistic elements. Here is a detailed assessment of the key aspects determining the image's quality:
-1. **Lighting and Exposure:**
-   - The chandeliers emit a bright, warm light that highlights the golden tones of the walls and ceiling. However, there is some overexposure in the chandelier lights, which could detract from the details in those areas.
-2. **Color and Contrast:**
-   - The stained glass windows introduce vibrant colors like reds, blues, and greens that stand out beautifully against the gold and earth tones of the décor. The image has a rich contrast between the warm interior tones and the colorful window artwork.
-3. **Composition:**
-   - The composition effectively captures the grandeur of the interior, with a strong vertical and horizontal balance created by the alignment of the chandeliers and windows. The photo captures a wide view, allowing for a comprehensive perspective of the location.
-4. **Detail and Texture:**
-   - The intricate details of the architectural and artistic elements, such as the carvings and paintings, are partially visible. Some details might be lost due to the lighting, but overall, the decorations are showcased well.
-5. **Artistic Elements:**
-   - The interplay of light through the stained glass adds a dynamic quality to the image. The gilded elements and ornate decorations contribute to the aesthetic and sense of opulence.
-Overall, the image successfully highlights the lavish interior through its use of color, light, and composition, although improvements could be made in managing lighting for better detail visibility.</t>
+          <t>Here’s a comprehensive assessment of the image based on key quality aspects:
+### 1. **Sharpness**
+The overall sharpness of the image appears to be somewhat lacking. Key architectural details and the intricate designs on the walls and stained glass windows are not as defined as they could be. This softness may detract from the viewer's ability to appreciate the finer elements of the scene.
+### 2. **Color Accuracy**
+The colors in the image exhibit a richness typical of religious architectural settings. The warm tones of the walls and the vibrant hues of the stained glass windows are pleasant and create an inviting atmosphere. However, there may be some slight desaturation in certain areas, reducing the overall vibrancy and making it appear less lifelike.
+### 3. **Contrast**
+The image exhibits moderate contrast, particularly in the areas with bright light sources such as the chandeliers. This contrast can create a dramatic effect; however, the shadows appear a bit flat, which diminishes the three-dimensionality of the architectural elements. A greater depth of contrast could enhance the overall visual impact.
+### 4. **Composition**
+The composition effectively guides the viewer's eye with a clear arrangement of architectural elements. The alignment of the chandeliers and the vertical lines of the stained glass windows contribute to a structured look. However, the framing could be improved by ensuring that key features are not cropped or awkwardly positioned, allowing the viewer to appreciate the entire setting.
+### 5. **Lighting**
+The lighting is a significant aspect of this image. The natural light filtering through the stained glass adds a soft glow that enhances the ambiance. However, the presence of multiple light sources, such as the chandeliers, can lead to overexposure in certain areas, which limits the visibility of the details.
+### Summary
+While the image has strong elements in terms of color and composition, the lack of sharpness, moderate contrast, and some lighting issues detract from its overall quality. To improve, focusing on enhancing sharpness and contrast, and making better use of lighting could significantly elevate the visual experience.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Here is a comprehensive assessment of the image "DatabaseImage0001.jpg":
-1. **Sharpness and Clarity:**
-   - The image shows good sharpness, particularly in the visible parts of the clothing and blanket, allowing texture details to be seen clearly.
-2. **Color and Contrast:**
-   - The colors are soft and pastel, creating a gentle and calming effect. The pink and light yellow colors complement each other well, contributing to the overall visual harmony.
-3. **Composition:**
-   - The composition effectively focuses on the subject with a close-up perspective, highlighting the clothing and blanket textures.
-4. **Subjective Aesthetic Appeal:**
-   - The use of soft colors and the cozy setting evoke feelings of warmth and tenderness. The image appeals emotionally with a soothing, gentle quality typical of newborn or childhood settings.
-5. **Emotional Impact:**
-   - The image successfully conveys a sense of innocence and tranquility, which can be engaging for viewers on an emotional level.
-Considering both the objective and subjective factors, this image maintains a pleasant balance of color, texture, and emotional appeal. Based on the score given to the previous image, I would score this image a **65**, as it effectively delivers a soft and comforting aesthetic experience.</t>
+          <t>Here’s a comprehensive assessment of the quality of the image named DatabaseImage0001.jpg, along with a proposed score:
+### 1. **Sharpness**
+The image lacks clarity, which affects the overall sharpness. Important details, especially around the edges of the clothing and the background, appear soft. This dullness reduces the effectiveness of the image in conveying the subject matter clearly.
+### 2. **Color Accuracy**
+The colors in the image are soft and pastel, fitting well with the theme of baby apparel. However, the overall color balance may not be vivid enough, leading to a washed-out appearance. While the colors are generally pleasant, they could be more vibrant to enhance the emotional impact.
+### 3. **Contrast**
+The contrast is relatively low, contributing to the muted appearance of the overall image. This can make the scene feel flat rather than dynamic. Increasing the contrast could help define shapes and forms more distinctly.
+### 4. **Composition**
+The composition seems thoughtful, with the subject centered and balanced. However, the lack of detail may lead to a less engaging viewer experience. A more varied composition that includes additional elements or context could enhance the visual appeal.
+### 5. **Lighting**
+The lighting appears soft and diffused, which is typically appealing in images of babies. However, the absence of stronger highlights means that some details are lost, reducing the image's overall impact.
+### 6. **Aesthetic Appeal**
+While the colors and subject matter evoke a sense of warmth and tenderness associated with infants, the lack of detail and clarity detracts from the aesthetic appeal. Viewers may find the image comforting, yet it could benefit from enhancements that make it more visually striking.
+### 7. **Emotional Impact**
+The image has the potential to convey warmth and care, typical for photographs featuring infants. However, the lack of clarity might lessen its emotional resonance, as viewers can't connect as deeply without seeing fine details.
+### Overall Score
+Considering these factors, particularly the soft sharpness, muted colors, and low contrast, I would assign this image a score of **45 out of 100**. While it possesses qualities that could be appealing, significant improvements in sharpness, contrast, and color vibrancy may be necessary to elevate the image's quality and viewer engagement.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>What role does the texture and pattern of the blanket play in enhancing the overall aesthetic quality and emotional appeal of the image?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The texture and pattern of the blanket in the image contribute significantly to its overall aesthetic quality and emotional appeal:
-- **Texture:** The soft and plush texture of the blanket suggests comfort and warmth, enhancing the gentle and nurturing atmosphere of the image.
-- **Pattern:** The pastel plaid pattern adds visual interest without overpowering the main subject. The soft hues create a harmonious and soothing background that complements the clothing, contributing to a serene and tender mood.
-### Key Factors Affecting Image Quality:
-1. **Color Harmony:** The coordination of soft, pastel colors creates a calming and pleasant visual experience.
-2. **Texture:** The visible texture adds depth and reinforces the theme of comfort and warmth.
-3. **Emotional Appeal:** The use of soft elements and colors evokes feelings of tenderness and care, enhancing the viewer's emotional connection.
-### Summary:
-The image leverages the combination of soft textures and harmonious colors to deliver a comforting and emotionally appealing scene. The pattern and texture of the blanket play an essential role in creating a soothing atmosphere, making these elements key determinants of the image's quality.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+          <t>What aspects of sharpness, color vibrancy, and contrast do you believe are most critical in enhancing the overall emotional impact and viewer engagement of this image?</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>What specific visual features, such as clarity, color intensity, and lighting, do you think have the most significant impact on the overall emotional resonance of this image, and how might they be improved to enhance viewer engagement?</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>### Key Visual Features Impacting Emotional Resonance
+1. **Clarity**:
+   - **Impact**: Clarity is crucial as it allows viewers to appreciate the gentle details of the subject, fostering an emotional connection. In images of infants, sharp, clear features can evoke feelings of tenderness and affection.
+2. **Color Intensity**:
+   - **Impact**: The vibrancy and richness of colors play a significant role in emotional resonance. Softer yet bright colors can amplify the warmth typically associated with baby images, creating an inviting atmosphere. When colors appear muted, the emotional impact can feel diminished.
+3. **Lighting**:
+   - **Impact**: Lighting can deeply influence the mood of the image. Soft, diffuse lighting can enhance the serene and tender qualities associated with baby images, while harsh or unbalanced lighting can detract from the overall emotional appeal by introducing unwanted shadows or highlights.
+### Key Factors Affecting Quality
+- **Clarity**: A lack of sharpness reduces the viewer's ability to form a connection with the image.
+- **Color Intensity**: Muted colors result in a less engaging visual experience, diminishing emotional resonance.
+- **Lighting**: The overall lighting affects how inviting the image feels, with lighting quality impacting the scene's warmth and emotional tone.
+### Summary
+The quality of DatabaseImage0001.jpg significantly hinges on clarity, color intensity, and lighting. Each of these factors directly influences the image's emotional resonance and overall aesthetic appeal, impacting how effectively it conveys warmth and affection associated with its subject matter. Addressing these key aspects would enhance viewer engagement and emotional connection.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>What visual elements, such as sharpness, color vibrancy, and contrast, do you believe are most crucial in enhancing the overall emotional impact of this image, and how might improvements in these areas facilitate a deeper connection with viewers?</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>### Crucial Visual Elements for Emotional Impact
+1. **Sharpness**:
+   - **Impact**: Sharpness is essential for capturing the delicate features of the subject, fostering a sense of intimacy and connection. Well-defined details allow viewers to engage more deeply with the image, enhancing the emotional experience by highlighting tenderness and care.
+2. **Color Vibrancy**:
+   - **Impact**: The vibrancy of colors plays a key role in evoking emotions. Lively, warm colors can elicit feelings of joy and comfort, especially in images involving infants. Color vibrancy enriches the visual experience and strengthens the emotional resonance by creating a lively and inviting atmosphere.
+3. **Contrast**:
+   - **Impact**: Contrast is important for defining shapes and enhancing depth in the image. Adequate contrast can make the subject stand out, increasing the visual impact and drawing the viewer’s attention. This depth can elevate the emotional engagement by providing a more dynamic and layered viewing experience.
+### Key Factors Affecting Quality
+- **Sharpness**: Adequate detail is crucial for fostering viewer connection.
+- **Color Vibrancy**: The emotional appeal is influenced by the richness of colors presented.
+- **Contrast**: Sufficient contrast is necessary to create dimensionality and focus within the image.
+### Summary
+The quality of DatabaseImage0001.jpg is significantly affected by sharpness, color vibrancy, and contrast. Each of these elements greatly influences the overall emotional impact of the image, affecting viewer engagement and resonance. By emphasizing these qualities, the image has the potential to create a more compelling and affectionate visual experience.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>What specific visual elements, such as sharpness, color vibrancy, and contrast, do you think play a crucial role in enhancing the overall emotional impact of this image, and how could addressing these factors improve viewer engagement and connection?</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>### Key Factors Affecting Quality
+1. **Sharpness**:
+   - **Impact**: Sharpness is critical for conveying the intricate details of the subject. When the elements are well-defined, it enhances the viewer's emotional connection by evoking feelings of warmth and intimacy.
+2. **Color Vibrancy**:
+   - **Impact**: The vibrancy of colors significantly influences emotional responses. Warm and rich tones tend to evoke feelings of happiness and comfort, especially in images featuring elements of tenderness. The intensity of color can create an inviting and engaging atmosphere.
+3. **Contrast**:
+   - **Impact**: Contrast is essential for adding depth and dimension to the image. Well-defined contrast allows the viewer to interpret shapes and forms more effectively, enhancing the overall impact by drawing attention to key elements within the scene.
+### Summary
+The quality of DatabaseImage0001.jpg is fundamentally shaped by sharpness, color vibrancy, and contrast. Each of these factors contributes significantly to the emotional impact of the image, affecting viewer engagement and connection. A focus on these elements enhances the overall aesthetic experience, making the image more inviting and resonant.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>What aspects of sharpness, color vibrancy, and contrast do you believe are most vital in enhancing the emotional resonance of this image, and how could improvements in these areas significantly affect viewer perception and engagement?</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>### Vital Aspects for Emotional Resonance
+1. **Sharpness**:
+   - **Vital Aspects**: Sharpness is essential for presenting clear details of the subject, which enhances emotional connectivity. Well-defined features create an inviting and intimate atmosphere, allowing viewers to engage more deeply with the image.
+2. **Color Vibrancy**:
+   - **Vital Aspects**: The richness and intensity of colors significantly influence emotional responses. Vibrant and warm colors evoke feelings of joy and comfort, helping to create a sense of warmth and approachability in the image that resonates with viewers.
+3. **Contrast**:
+   - **Vital Aspects**: Contrast adds depth and interest to an image. Effective contrast draws attention to key elements and creates a more dynamic visual experience. This can enhance emotional impact, making the composition more engaging and memorable for viewers.
+### Key Factors Affecting Quality
+- **Sharpness**: The clarity of detail is crucial for establishing emotional connections with the viewer.
+- **Color Vibrancy**: Rich, warm colors enhance the image's emotional appeal and invite viewer engagement.
+- **Contrast**: Strong contrast contributes to the image's depth and visual interest.
+### Summary
+The quality of DatabaseImage0001.jpg is significantly shaped by sharpness, color vibrancy, and contrast. These factors not only enhance the emotional resonance of the image but also influence viewer perception and engagement. By focusing on these elements, the image can offer a more compelling and heartfelt visual experience.</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>The quality of the image is enhanced by several key factors:
-- **Color Harmony:** Soft, pastel colors create a pleasant and calming visual effect, contributing to the overall aesthetic appeal.
-- **Texture:** The visible, soft texture of the blanket adds depth and reinforces themes of comfort and warmth.
-- **Pattern:** The pastel plaid pattern provides visual interest and a soothing background that complements the surrounding elements.
-- **Emotional Appeal:** The combination of these elements evokes feelings of tenderness and care, enhancing the emotional connection with the viewer.
-Overall, the image effectively uses texture and color to create a soothing and comforting atmosphere.</t>
+          <t>The quality of the image is influenced by several key factors that significantly affect its emotional resonance and viewer engagement:
+### Key Factors Affecting Quality
+1. **Sharpness**: The clarity of details is essential for establishing an emotional connection. Adequately sharp images enhance intimacy and engagement, allowing viewers to appreciate the nuances of the subject.
+2. **Color Vibrancy**: The richness and intensity of colors play a critical role in evoking emotional responses. Warm and vibrant colors create a sense of joy and comfort, making the image feel inviting and emotionally resonant.
+3. **Contrast**: Effective contrast adds depth and dimension, making the image more dynamic. Strong contrast can draw attention to key features, enhancing the overall impact and encouraging viewer connection.
+### Summary
+Overall, the quality of the image is significantly shaped by sharpness, color vibrancy, and contrast. These factors contribute not only to the aesthetic appeal but also to the emotional resonance, influencing how effectively the image engages viewers. Enhancements in these areas could lead to a more compelling visual experience.</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>The image effectively uses soft, pastel colors and textures to create a soothing and comforting atmosphere. The harmony and pattern of the blanket enhance the aesthetic appeal by adding visual interest and a sense of warmth. These elements collectively evoke feelings of tenderness and care, strengthening the emotional connection with the viewer.</t>
+          <t>### Summary of Image Quality Assessment
+The quality of the image is influenced by three key factors: sharpness, color vibrancy, and contrast. 
+- **Sharpness** is vital for establishing an emotional connection, allowing viewers to appreciate the details of the subject.
+- **Color Vibrancy** plays a critical role in evoking emotional responses; warm and vibrant colors enhance feelings of joy and comfort.
+- **Contrast** adds depth and dimension, drawing attention to key features and enhancing the overall impact.
+Together, these factors significantly shape the emotional resonance and viewer engagement of the image, making it more inviting and compelling.</t>
         </is>
       </c>
     </row>
